--- a/php后台访问路径.xlsx
+++ b/php后台访问路径.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>路径</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>[{"start_date":"开始时间yyyy-dd-mm","end_date":"结束时间yyyy-dd-mm","corporate_name":"公司名称","work_name":"岗位名称"},{...},{...}]</t>
+  </si>
+  <si>
+    <t>person_height</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>体重</t>
   </si>
   <si>
     <t>https://res.hothwq.com/index.php?r=recruit-info-select</t>
@@ -420,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -464,22 +476,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -496,34 +515,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,9 +534,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,26 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,15 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -615,37 +627,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,49 +765,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,85 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,26 +821,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,11 +860,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,6 +892,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -886,23 +913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,148 +923,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1683,184 +1695,200 @@
         <v>70</v>
       </c>
     </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
         <v>89</v>
       </c>
-      <c r="C52" t="s">
-        <v>85</v>
-      </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
         <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="3:4">
       <c r="C69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="3:4">
@@ -1868,69 +1896,69 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="C72" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="3:4">
       <c r="C75" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -1938,83 +1966,83 @@
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="3:4">
       <c r="C84" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="3:4">
@@ -2062,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="3:4">
@@ -2102,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="3:4">
@@ -2241,7 +2269,7 @@
         <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="3:5">
@@ -2252,7 +2280,7 @@
         <v>69</v>
       </c>
       <c r="E123" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
